--- a/src/excel_template/cdQC/XY Scan difference global format.xlsx
+++ b/src/excel_template/cdQC/XY Scan difference global format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10010" yWindow="330" windowWidth="14810" windowHeight="8000" activeTab="3"/>
+    <workbookView xWindow="10010" yWindow="330" windowWidth="14810" windowHeight="8000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -1081,6 +1081,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -1105,6 +1106,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1486,6 +1488,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_ " sourceLinked="0"/>
@@ -39247,7 +39250,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39583,7 +39586,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
